--- a/API/files/STOCKAI%20FORMAT.xlsx
+++ b/API/files/STOCKAI%20FORMAT.xlsx
@@ -1,315 +1,222 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCFDCB42-FD7B-7743-8CE0-CA0505577AAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ML Excel" sheetId="1" r:id="rId1"/>
-    <sheet name="Mapping" sheetId="2" r:id="rId2"/>
-    <sheet name="Questions" sheetId="3" r:id="rId3"/>
-    <sheet name="Server" sheetId="4" r:id="rId4"/>
+    <sheet name="ML Excel" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="84">
-  <si>
-    <t>GroupName</t>
-  </si>
-  <si>
-    <t>GroupId</t>
-  </si>
-  <si>
-    <t>Group Image File</t>
-  </si>
-  <si>
-    <t>Ticker</t>
-  </si>
-  <si>
-    <t>Ticker Image</t>
-  </si>
-  <si>
-    <t>Stock Name</t>
-  </si>
-  <si>
-    <t>Suggested Date</t>
-  </si>
-  <si>
-    <t>Suggested Date Price</t>
-  </si>
-  <si>
-    <t>TargetPrice</t>
-  </si>
-  <si>
-    <t>Target Date</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>TGR_PLAIN</t>
-  </si>
-  <si>
-    <t>tiger</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>aaple</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Todays time</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>FB</t>
-  </si>
-  <si>
-    <t>fb</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>nflx</t>
-  </si>
-  <si>
-    <t>NetFlix</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>amzn</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>GOOG</t>
-  </si>
-  <si>
-    <t>goog</t>
-  </si>
-  <si>
-    <t>Alphabet</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Elephant</t>
-  </si>
-  <si>
-    <t>ELE_PLAIN</t>
-  </si>
-  <si>
-    <t>elephant</t>
-  </si>
-  <si>
-    <t>Snake</t>
-  </si>
-  <si>
-    <t>SNK_PLAIN</t>
-  </si>
-  <si>
-    <t>snake</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>LIN_PLAIN</t>
-  </si>
-  <si>
-    <t>lion</t>
-  </si>
-  <si>
-    <t>Cow</t>
-  </si>
-  <si>
-    <t>COW_PLAIN</t>
-  </si>
-  <si>
-    <t>cow</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>CHK_PLAIN</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>TUR_PLAIN</t>
-  </si>
-  <si>
-    <t>Bee</t>
-  </si>
-  <si>
-    <t>BEE_PLAIN</t>
-  </si>
-  <si>
-    <t>bee</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Suggestion</t>
-  </si>
-  <si>
-    <t>How  do you get stocks that are in the user portifolio ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You might require to add stock id in portifolio table and need to join stock and portifolio table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How you link stock and Real time price table? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">you cannot link with stock_id.
-i believe stock id is kind of auto generated primar key. You dont require to link also. you need just
-query real time price by joining stock:ticker and Real_time_price_table:ticker. Currently you have stock_id.
-you can remove stock_id and add ticker table. Please note that real_time_table always have 1 latest price for the given ticker.
-</t>
-  </si>
-  <si>
-    <t>Excel-Field</t>
-  </si>
-  <si>
-    <t>Connection Details</t>
-  </si>
-  <si>
-    <t>Server user :Nelait</t>
-  </si>
-  <si>
-    <t>Pass: Nel@it4us1234</t>
-  </si>
-  <si>
-    <t>ssh nelait@104.41.129.222</t>
-  </si>
-  <si>
-    <t>DB Field(Table:Field)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Group_Icon_Name:group_name</t>
-  </si>
-  <si>
-    <t>Please change table name to Group_info. If you can please merge,Prediction_Group and Group_Icon_Table tables</t>
-  </si>
-  <si>
-    <t>Prediction_Group:prediction_group_id</t>
-  </si>
-  <si>
-    <t>Please change field name to group_id</t>
-  </si>
-  <si>
-    <t>Group_Icon_Name:group_image</t>
-  </si>
-  <si>
-    <t>Stock:Ticker</t>
-  </si>
-  <si>
-    <t>Stock:TickerImage</t>
-  </si>
-  <si>
-    <t>Please add new column ticker Image in Ticker table</t>
-  </si>
-  <si>
-    <t>Stock:stock_name</t>
-  </si>
-  <si>
-    <t>Stock:suggested_date</t>
-  </si>
-  <si>
-    <t>Stock:suggested_date_price</t>
-  </si>
-  <si>
-    <t>Please add suggested_date_price column</t>
-  </si>
-  <si>
-    <t>Stock:target_price</t>
-  </si>
-  <si>
-    <t>Stock:target_date</t>
-  </si>
-  <si>
-    <t>Please add target_date column</t>
-  </si>
-  <si>
-    <t>Stock:timestamp</t>
-  </si>
-  <si>
-    <t>current timestamp when you update</t>
-  </si>
-  <si>
-    <t>Please add version column</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">GroupName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GroupId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Image File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticker Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stock Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggested Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggested Date Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timestamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGR_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAPL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todays time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFLX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nflx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetFlix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMZN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">amzn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alphabet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELE_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elephant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNK_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIN_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COW_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHK_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turtle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUR_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEE_PLAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\-dd\-yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="MM\-DD\-YYYY"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,7 +228,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -329,344 +236,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:L1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L999" activeCellId="0" sqref="L999"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="15.37109375" customWidth="1"/>
-    <col min="8" max="8" width="19.1484375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -723,16 +363,16 @@
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="G2" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -742,7 +382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -761,16 +401,16 @@
       <c r="F3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H3" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -780,7 +420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -799,16 +439,16 @@
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="G4" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -818,7 +458,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -837,16 +477,16 @@
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -856,7 +496,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -875,16 +515,16 @@
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G6" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="1" t="n">
         <v>1210</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -894,7 +534,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -913,16 +553,16 @@
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -932,7 +572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -951,16 +591,16 @@
       <c r="F8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -970,7 +610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -989,16 +629,16 @@
       <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1008,7 +648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1027,16 +667,16 @@
       <c r="F10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="1" t="n">
         <v>1650</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1046,7 +686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1065,16 +705,16 @@
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="2" t="n">
         <v>43504</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="1" t="n">
         <v>1100</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1084,7 +724,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1103,16 +743,16 @@
       <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="G12" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H12" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1122,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -1141,16 +781,16 @@
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H13" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -1160,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1179,16 +819,16 @@
       <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1198,7 +838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1217,16 +857,16 @@
       <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H15" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1236,7 +876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1255,16 +895,16 @@
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="G16" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H16" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1274,7 +914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1293,16 +933,16 @@
       <c r="F17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H17" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1312,7 +952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1331,16 +971,16 @@
       <c r="F18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H18" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -1350,7 +990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1369,16 +1009,16 @@
       <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="G19" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H19" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -1388,7 +1028,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1407,16 +1047,16 @@
       <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="G20" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H20" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1426,7 +1066,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1445,16 +1085,16 @@
       <c r="F21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H21" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1464,7 +1104,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1483,16 +1123,16 @@
       <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G22" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="G22" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H22" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -1502,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -1521,16 +1161,16 @@
       <c r="F23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="G23" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H23" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -1540,7 +1180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -1559,16 +1199,16 @@
       <c r="F24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="G24" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H24" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1578,7 +1218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -1597,16 +1237,16 @@
       <c r="F25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="G25" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H25" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -1616,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1635,16 +1275,16 @@
       <c r="F26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="G26" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -1654,7 +1294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
@@ -1673,16 +1313,16 @@
       <c r="F27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="G27" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H27" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -1692,7 +1332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -1711,16 +1351,16 @@
       <c r="F28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G28" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -1730,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1749,16 +1389,16 @@
       <c r="F29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H29" s="1">
+      <c r="G29" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H29" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -1768,7 +1408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>45</v>
       </c>
@@ -1787,16 +1427,16 @@
       <c r="F30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="G30" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H30" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -1806,7 +1446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -1825,16 +1465,16 @@
       <c r="F31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H31" s="1">
+      <c r="G31" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H31" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -1844,7 +1484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
@@ -1863,16 +1503,16 @@
       <c r="F32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="G32" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H32" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -1882,7 +1522,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,16 +1541,16 @@
       <c r="F33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="G33" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H33" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -1920,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1939,16 +1579,16 @@
       <c r="F34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H34" s="1">
+      <c r="G34" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H34" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -1958,7 +1598,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
@@ -1977,16 +1617,16 @@
       <c r="F35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="G35" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H35" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -1996,7 +1636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2015,16 +1655,16 @@
       <c r="F36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="G36" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H36" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -2034,7 +1674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2053,16 +1693,16 @@
       <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="G37" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H37" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -2072,7 +1712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2091,16 +1731,16 @@
       <c r="F38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H38" s="1">
+      <c r="G38" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H38" s="1" t="n">
         <v>170.94</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -2110,7 +1750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>50</v>
       </c>
@@ -2129,16 +1769,16 @@
       <c r="F39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G39" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H39" s="1">
+      <c r="G39" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H39" s="1" t="n">
         <v>166.38</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -2148,7 +1788,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -2167,16 +1807,16 @@
       <c r="F40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G40" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="G40" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H40" s="1" t="n">
         <v>344.71</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -2186,7 +1826,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -2205,16 +1845,16 @@
       <c r="F41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H41" s="1">
+      <c r="G41" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H41" s="1" t="n">
         <v>1614</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="1" t="n">
         <v>1750</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -2224,7 +1864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -2243,16 +1883,16 @@
       <c r="F42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="2">
-        <v>43503</v>
-      </c>
-      <c r="H42" s="1">
+      <c r="G42" s="2" t="n">
+        <v>43503</v>
+      </c>
+      <c r="H42" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="2" t="n">
         <v>43575</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -2262,269 +1902,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1001" spans="10:10" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="J1001" s="2">
-        <v>43575</v>
-      </c>
-    </row>
+    <row r="1001" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AB13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.1484375" customWidth="1"/>
-    <col min="2" max="2" width="42.74609375" customWidth="1"/>
-    <col min="3" max="3" width="95.609375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="61.22265625" customWidth="1"/>
-    <col min="2" max="2" width="77" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.5078125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="12.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>